--- a/pred_ohlcv/54_21/2019-10-28 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 OMG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>22998.88644541242</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26643.02574541241</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>26654.07994541241</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>23246.58084541241</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>24116.26324541241</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>23708.96064541241</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>20024.88634541241</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>19859.57014541241</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19498.77164541241</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>19497.59454541241</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>19464.48574541241</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>19466.48574541241</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>19466.23864541241</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>20478.60774541241</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>20238.9004454124</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20593.6536454124</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>20593.7536454124</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>19629.2818454124</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>19623.2818454124</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>21561.2818454124</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21310.6271454124</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>21712.4687454124</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>38312.0109792266</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>38311.76444286297</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>38099.79204286297</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>38376.38844286298</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>39561.90254286298</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>47007.52060335344</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>45805.5973638439</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>45886.70986384391</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>51143.86766384391</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>51743.86766384391</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>52396.47136384391</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>54976.07606384391</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>54305.70966384391</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>54779.24956384391</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>54301.31646384391</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>59149.52316384391</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>61309.47986384392</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>61275.74246384392</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62877.09466384392</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>64439.17176384392</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>58672.70936349212</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>58321.68635643744</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>58221.68635643744</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>91668.84249370162</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>92733.74094444298</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>93905.00932152056</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>91366.40842152055</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>91945.89172152056</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>92055.48412152055</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>92139.58412152056</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>97666.21162152056</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>96419.48442152057</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>95473.22222152057</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>95255.24882152057</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>98750.34352152057</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>98196.92972152057</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>98179.72972152058</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>97935.22972152058</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>98414.32312152057</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>98372.24222152057</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>94799.27902152058</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 OMG ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>24155.90204541241</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>25500.32834541241</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>25771.60404541241</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>23708.96064541241</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>20024.88634541241</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>19859.57014541241</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>19412.56124541241</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19498.77164541241</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>19497.59454541241</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>19464.48574541241</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>19466.48574541241</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>19466.23864541241</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>20478.60774541241</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>20370.52454541241</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>18067.1533454124</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>18064.6296454124</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17957.5089454124</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>18458.0216454124</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>20252.1574454124</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>20238.9004454124</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20593.6536454124</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>20593.7536454124</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>19629.2818454124</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>19623.2818454124</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>21561.2818454124</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>21261.2818454124</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21310.6271454124</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>21712.4687454124</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>38312.0109792266</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>38311.76444286297</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>38099.79204286297</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>38376.38844286298</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>39561.90254286298</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>47007.52060335344</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>45805.5973638439</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>45886.70986384391</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>51143.86766384391</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>51743.86766384391</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>52396.47136384391</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>54976.07606384391</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>54305.70966384391</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>54779.24956384391</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>54301.31646384391</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>59010.26366384391</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>59049.52316384391</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>59149.52316384391</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>61309.47986384392</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>61275.74246384392</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62877.09466384392</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>64439.17176384392</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>58672.70936349212</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>58321.68635643744</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>58221.68635643744</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>83856.16307173463</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>82055.92317173463</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>82055.43927173462</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>85450.42337173464</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>91668.84249370162</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>92733.74094444298</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>93905.00932152056</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>91366.40842152055</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>92177.59172152056</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>91945.89172152056</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>92055.48412152055</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>92139.58412152056</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>93693.18762152056</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>99368.17272152056</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>97666.21162152056</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>96419.48442152057</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>95473.22222152057</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>95255.24882152057</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>98782.95062152056</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>98750.34352152057</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>98196.92972152057</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>98179.72972152058</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>98390.50392152058</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
